--- a/public/data/profit/profit_table_central_african_republic.xlsx
+++ b/public/data/profit/profit_table_central_african_republic.xlsx
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-8.97</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1439,22 +1439,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-8.19</v>
+        <v>-35.92</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-10.25</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-9.21</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-8.25</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-10.28</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1495,37 +1495,37 @@
         <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.95</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-49.41</v>
+        <v>6.79</v>
       </c>
       <c r="G4" t="n">
-        <v>-160.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-208.78</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-141.18</v>
+        <v>-173.77</v>
       </c>
       <c r="K4" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>518.48</v>
+        <v>522.07</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-126.23</v>
+        <v>-126.46</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1534,31 +1534,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-93.17</v>
+        <v>-62.52</v>
       </c>
       <c r="R4" t="n">
-        <v>-141.54</v>
+        <v>-174.52</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-150.39</v>
+        <v>-174.66</v>
       </c>
       <c r="U4" t="n">
-        <v>-54.56</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-188.09</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-42.44</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.12</v>
+        <v>325.79</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1584,52 +1584,52 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-87.18</v>
+        <v>-84.28</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-83.65</v>
+        <v>-114.89</v>
       </c>
       <c r="J5" t="n">
-        <v>-190.46</v>
+        <v>-130.63</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>355.1</v>
+        <v>326.16</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-267.66</v>
+        <v>-184.55</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-284.37</v>
+        <v>-204.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>-223.91</v>
+        <v>-137.53</v>
       </c>
       <c r="R5" t="n">
-        <v>-186.4</v>
+        <v>-124.76</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-288.22</v>
+        <v>-207.06</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-84.32</v>
+        <v>-110.06</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.09</v>
+        <v>203.25</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1655,70 +1655,70 @@
         <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>-123.53</v>
+        <v>-222.69</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-10.79</v>
+        <v>62.23</v>
       </c>
       <c r="G6" t="n">
-        <v>-77.52</v>
+        <v>-38.29</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-82.66</v>
+        <v>-63.69</v>
       </c>
       <c r="J6" t="n">
-        <v>-159.32</v>
+        <v>-164.39</v>
       </c>
       <c r="K6" t="n">
-        <v>-150.41</v>
+        <v>-64.05</v>
       </c>
       <c r="L6" t="n">
-        <v>176.9</v>
+        <v>211.7</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-213.23</v>
+        <v>-163.48</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-257.96</v>
+        <v>-176.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>-183.14</v>
+        <v>-124.36</v>
       </c>
       <c r="R6" t="n">
-        <v>-158.41</v>
+        <v>-162.44</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-216.67</v>
+        <v>-167.85</v>
       </c>
       <c r="U6" t="n">
-        <v>-179.43</v>
+        <v>-133.93</v>
       </c>
       <c r="V6" t="n">
-        <v>-80.13</v>
+        <v>-51.66</v>
       </c>
       <c r="W6" t="n">
-        <v>-135.51</v>
+        <v>-37.47</v>
       </c>
       <c r="X6" t="n">
-        <v>-125.8</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-34.63</v>
+        <v>141.12</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1744,52 +1744,52 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-83.86</v>
+        <v>-80.53</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-87.54</v>
+        <v>-103.34</v>
       </c>
       <c r="J7" t="n">
-        <v>-127.63</v>
+        <v>-158.21</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.09</v>
+        <v>150.75</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-202.42</v>
+        <v>-148.56</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-216.34</v>
+        <v>-167.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>-174.01</v>
+        <v>-114.64</v>
       </c>
       <c r="R7" t="n">
-        <v>-125.14</v>
+        <v>-150.09</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-220.2</v>
+        <v>-171.85</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-83.28</v>
+        <v>-99.22</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.25</v>
+        <v>289.12</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1815,70 +1815,70 @@
         <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>-175.99</v>
+        <v>-149.38</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>116.5</v>
+        <v>176.56</v>
       </c>
       <c r="G8" t="n">
-        <v>-77.95</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-81.33</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-180.97</v>
+        <v>-138.31</v>
       </c>
       <c r="K8" t="n">
-        <v>-199.41</v>
+        <v>-97.86</v>
       </c>
       <c r="L8" t="n">
-        <v>313.77</v>
+        <v>351.43</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-262.57</v>
+        <v>-178.72</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-271.61</v>
+        <v>-200.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>-221.73</v>
+        <v>-133.47</v>
       </c>
       <c r="R8" t="n">
-        <v>-178.11</v>
+        <v>-133.01</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-262.79</v>
+        <v>-178.77</v>
       </c>
       <c r="U8" t="n">
-        <v>-217.57</v>
+        <v>-120.6</v>
       </c>
       <c r="V8" t="n">
-        <v>-79.59</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-140.31</v>
+        <v>-26.38</v>
       </c>
       <c r="X8" t="n">
-        <v>-105.33</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-23.66</v>
+        <v>157.22</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-179.24</v>
+        <v>-67.52</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1913,52 +1913,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-278.92</v>
+        <v>-153.18</v>
       </c>
       <c r="K9" t="n">
-        <v>-90.15</v>
+        <v>0.8</v>
       </c>
       <c r="L9" t="n">
-        <v>433.8</v>
+        <v>421.76</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-285.9</v>
+        <v>-209.9</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-266.04</v>
+        <v>-168.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>-220.78</v>
+        <v>-114.18</v>
       </c>
       <c r="R9" t="n">
-        <v>-252.65</v>
+        <v>-125.51</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-310.67</v>
+        <v>-213.14</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-191.1</v>
+        <v>-78.95</v>
       </c>
       <c r="W9" t="n">
-        <v>101.09</v>
+        <v>291.12</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-46</v>
+        <v>102.54</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1981,67 +1981,67 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>673.65</v>
+        <v>717.11</v>
       </c>
       <c r="G10" t="n">
-        <v>-153.72</v>
+        <v>-73.5</v>
       </c>
       <c r="H10" t="n">
-        <v>762.49</v>
+        <v>807.93</v>
       </c>
       <c r="I10" t="n">
-        <v>-178.24</v>
+        <v>-120.69</v>
       </c>
       <c r="J10" t="n">
-        <v>-288.11</v>
+        <v>-180.57</v>
       </c>
       <c r="K10" t="n">
-        <v>-210.18</v>
+        <v>-103.14</v>
       </c>
       <c r="L10" t="n">
-        <v>520.86</v>
+        <v>484.27</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-360.71</v>
+        <v>-247.56</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-351.85</v>
+        <v>-239.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>-271.15</v>
+        <v>-158.32</v>
       </c>
       <c r="R10" t="n">
-        <v>-267.5</v>
+        <v>-162.38</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-385.32</v>
+        <v>-272.15</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-157.8</v>
+        <v>-89.26</v>
       </c>
       <c r="W10" t="n">
-        <v>497.57</v>
+        <v>606.89</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-31.32</v>
+        <v>140.76</v>
       </c>
       <c r="Z10" t="n">
-        <v>-172.27</v>
+        <v>-74.67</v>
       </c>
     </row>
     <row r="11">
@@ -2061,64 +2061,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-28.41</v>
+        <v>17.01</v>
       </c>
       <c r="G11" t="n">
-        <v>-115.12</v>
+        <v>-70.72</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-109.17</v>
+        <v>-77.61</v>
       </c>
       <c r="J11" t="n">
-        <v>-152.15</v>
+        <v>-127.98</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>299.62</v>
+        <v>310.86</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-207.22</v>
+        <v>-109.55</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-209.21</v>
+        <v>-111.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>-172.65</v>
+        <v>-75</v>
       </c>
       <c r="R11" t="n">
-        <v>-149.42</v>
+        <v>-121.58</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-223.65</v>
+        <v>-126.23</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-120.46</v>
+        <v>-93.9</v>
       </c>
       <c r="W11" t="n">
-        <v>-97.47</v>
+        <v>-3.17</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-37.97</v>
+        <v>153.27</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2144,52 +2144,52 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-71.31</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-31.28</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-96.56</v>
+        <v>-90.8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>95.8</v>
+        <v>134.11</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-144.77</v>
+        <v>-89.03</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-145.35</v>
+        <v>-93.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>-119.69</v>
+        <v>-58.44</v>
       </c>
       <c r="R12" t="n">
-        <v>-94.73</v>
+        <v>-85.84</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-159.08</v>
+        <v>-104.18</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-74.43</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-20.17</v>
+        <v>137.28</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.46</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-33.11</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>38.53</v>
+        <v>107.34</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-53.14</v>
+        <v>-20.29</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-50.29</v>
+        <v>-21.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>-45.02</v>
+        <v>-11.76</v>
       </c>
       <c r="R13" t="n">
-        <v>-33.04</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-55.78</v>
+        <v>-28.14</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-5.59</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-29.7</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2304,52 +2304,52 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-156.85</v>
+        <v>-78.42</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-127.32</v>
+        <v>-88.32</v>
       </c>
       <c r="J14" t="n">
-        <v>-216.11</v>
+        <v>-170.6</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>397.38</v>
+        <v>353.75</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-204.52</v>
+        <v>-139.18</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-190.88</v>
+        <v>-138.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>-138.4</v>
+        <v>-70.71</v>
       </c>
       <c r="R14" t="n">
-        <v>-211.01</v>
+        <v>-161.61</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-210.81</v>
+        <v>-157.42</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-167.74</v>
+        <v>-101.11</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.32</v>
+        <v>298.55</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-41.55</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2393,43 +2393,43 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-52.47</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-16.27</v>
+        <v>30.76</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-63.22</v>
+        <v>-74.32</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-64.53</v>
+        <v>-79.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>-55.7</v>
+        <v>-43.47</v>
       </c>
       <c r="R15" t="n">
-        <v>-51.9</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-66.71</v>
+        <v>-91.14</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-41.89</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-27.41</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2455,70 +2455,70 @@
         <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>-80.99</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-13.66</v>
+        <v>54.65</v>
       </c>
       <c r="G16" t="n">
-        <v>-22.59</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-23.06</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-53.27</v>
+        <v>-75.33</v>
       </c>
       <c r="K16" t="n">
-        <v>-111.48</v>
+        <v>-67.79</v>
       </c>
       <c r="L16" t="n">
-        <v>-10.98</v>
+        <v>34.79</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-88.38</v>
+        <v>-92.91</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-91.78</v>
+        <v>-94.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>-74.73</v>
+        <v>-64.72</v>
       </c>
       <c r="R16" t="n">
-        <v>-53.04</v>
+        <v>-75.89</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-92.58</v>
+        <v>-103.12</v>
       </c>
       <c r="U16" t="n">
-        <v>-122.77</v>
+        <v>-87.45</v>
       </c>
       <c r="V16" t="n">
-        <v>-22.92</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-71.1</v>
+        <v>5.85</v>
       </c>
       <c r="X16" t="n">
-        <v>-9.7</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-34.14</v>
+        <v>68.07</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2544,28 +2544,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-138.1</v>
+        <v>-67.64</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-82.63</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-157.63</v>
+        <v>-110.75</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>236.94</v>
+        <v>225.75</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-182.15</v>
+        <v>-158.91</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2574,22 +2574,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-133.59</v>
+        <v>-91.5</v>
       </c>
       <c r="R17" t="n">
-        <v>-134.7</v>
+        <v>-86.95</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-197.77</v>
+        <v>-191.78</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-122.08</v>
+        <v>-68.78</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.53</v>
+        <v>234.42</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2621,31 +2621,31 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-54.17</v>
+        <v>-1.37</v>
       </c>
       <c r="G18" t="n">
-        <v>-99.83</v>
+        <v>-53.72</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-56.32</v>
+        <v>-75.61</v>
       </c>
       <c r="J18" t="n">
-        <v>-115.54</v>
+        <v>-153.41</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>85.2</v>
+        <v>116.55</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-128.48</v>
+        <v>-153.05</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2654,22 +2654,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-106.46</v>
+        <v>-99.34</v>
       </c>
       <c r="R18" t="n">
-        <v>-102.6</v>
+        <v>-120.78</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-143.59</v>
+        <v>-187.94</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-84.96</v>
+        <v>-75.23</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>24.6</v>
+        <v>453.5</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2695,13 +2695,13 @@
         <v>105</v>
       </c>
       <c r="D19" t="n">
-        <v>-46.93</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-128.64</v>
+        <v>-49.78</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-69.4</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-132.21</v>
+        <v>-26.23</v>
       </c>
       <c r="L19" t="n">
-        <v>-81.48</v>
+        <v>-16.92</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-123.56</v>
+        <v>-32.1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2734,31 +2734,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-111.73</v>
+        <v>-16.69</v>
       </c>
       <c r="R19" t="n">
-        <v>-68.92</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-124.35</v>
+        <v>-34.65</v>
       </c>
       <c r="U19" t="n">
-        <v>-138.86</v>
+        <v>-29.44</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-131.67</v>
+        <v>-17.47</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-55.04</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2784,28 +2784,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-57.85</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-57.78</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-116.7</v>
+        <v>-75.9</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>98.94</v>
+        <v>149.24</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-144.1</v>
+        <v>-85.92</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-124.92</v>
+        <v>-62.36</v>
       </c>
       <c r="R20" t="n">
-        <v>-115.78</v>
+        <v>-73.45</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-150.28</v>
+        <v>-95.8</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-58.4</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-39.17</v>
+        <v>120.61</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2864,52 +2864,52 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-95.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-98.04</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-126.11</v>
+        <v>-145.42</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.47</v>
+        <v>60.05</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-103.51</v>
+        <v>-117.97</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-93.6</v>
+        <v>-121.67</v>
       </c>
       <c r="Q21" t="n">
-        <v>-81.39</v>
+        <v>-76.65</v>
       </c>
       <c r="R21" t="n">
-        <v>-123.86</v>
+        <v>-138.77</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-100.99</v>
+        <v>-130.95</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-94.74</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-6.17</v>
+        <v>203.55</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="n">
-        <v>-382.04</v>
+        <v>-269.97</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2944,61 +2944,61 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-135.02</v>
+        <v>-14.74</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-181.49</v>
+        <v>-146.76</v>
       </c>
       <c r="J22" t="n">
-        <v>-188.26</v>
+        <v>-156.39</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>565.99</v>
+        <v>351.52</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-165.65</v>
+        <v>-113.17</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-56.12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-134.26</v>
+        <v>-69.49</v>
       </c>
       <c r="R22" t="n">
-        <v>-203.83</v>
+        <v>-182.95</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-182.97</v>
+        <v>-138.15</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-175.09</v>
+        <v>-131.25</v>
       </c>
       <c r="W22" t="n">
-        <v>-66.74</v>
+        <v>24.1</v>
       </c>
       <c r="X22" t="n">
-        <v>-245.12</v>
+        <v>-126.39</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.36</v>
+        <v>466.73</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -3024,52 +3024,52 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-60.56</v>
+        <v>-66.91</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-67.03</v>
+        <v>-88.32</v>
       </c>
       <c r="J23" t="n">
-        <v>-97.23</v>
+        <v>-117.95</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>141.51</v>
+        <v>172.77</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-152.64</v>
+        <v>-91.57</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-159.68</v>
+        <v>-100.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>-129.85</v>
+        <v>-63.57</v>
       </c>
       <c r="R23" t="n">
-        <v>-95.98</v>
+        <v>-110.34</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-161.24</v>
+        <v>-101.8</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-63.78</v>
+        <v>-92.57</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-21.27</v>
+        <v>202.9</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3095,70 +3095,70 @@
         <v>112</v>
       </c>
       <c r="D24" t="n">
-        <v>-69.07</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-86.08</v>
+        <v>-37.54</v>
       </c>
       <c r="G24" t="n">
-        <v>-99.85</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-105.4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-136.7</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-64.36</v>
+        <v>-5.75</v>
       </c>
       <c r="L24" t="n">
-        <v>416.04</v>
+        <v>443.32</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-182.3</v>
+        <v>-109.99</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-200.22</v>
+        <v>-128.77</v>
       </c>
       <c r="Q24" t="n">
-        <v>-153.11</v>
+        <v>-77.18</v>
       </c>
       <c r="R24" t="n">
-        <v>-135.55</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-183.03</v>
+        <v>-111.32</v>
       </c>
       <c r="U24" t="n">
-        <v>-117.81</v>
+        <v>-59.08</v>
       </c>
       <c r="V24" t="n">
-        <v>-103.05</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-73.55</v>
+        <v>-3.29</v>
       </c>
       <c r="X24" t="n">
-        <v>-29.69</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3175,70 +3175,70 @@
         <v>113</v>
       </c>
       <c r="D25" t="n">
-        <v>-51.41</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-113.77</v>
+        <v>-52.08</v>
       </c>
       <c r="G25" t="n">
-        <v>-59.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-61.24</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-109.71</v>
+        <v>-107.38</v>
       </c>
       <c r="K25" t="n">
-        <v>-79.2</v>
+        <v>-18.96</v>
       </c>
       <c r="L25" t="n">
-        <v>66.43</v>
+        <v>112.57</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-154.97</v>
+        <v>-125.05</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-222.85</v>
+        <v>-153.85</v>
       </c>
       <c r="Q25" t="n">
-        <v>-133.54</v>
+        <v>-93.32</v>
       </c>
       <c r="R25" t="n">
-        <v>-109</v>
+        <v>-104.82</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-159.48</v>
+        <v>-132.33</v>
       </c>
       <c r="U25" t="n">
-        <v>-88.34</v>
+        <v>-59.82</v>
       </c>
       <c r="V25" t="n">
-        <v>-60.4</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-69.54</v>
+        <v>-8.32</v>
       </c>
       <c r="X25" t="n">
-        <v>-21.06</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-42.66</v>
+        <v>101.82</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3261,64 +3261,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-115.44</v>
+        <v>-67.12</v>
       </c>
       <c r="G26" t="n">
-        <v>-145.87</v>
+        <v>-75.31</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-109.79</v>
+        <v>-87.61</v>
       </c>
       <c r="J26" t="n">
-        <v>-186.65</v>
+        <v>-176.74</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>567.96</v>
+        <v>495.69</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-234.86</v>
+        <v>-140.03</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-250</v>
+        <v>-153.84</v>
       </c>
       <c r="Q26" t="n">
-        <v>-194.22</v>
+        <v>-96.93</v>
       </c>
       <c r="R26" t="n">
-        <v>-185.01</v>
+        <v>-172.55</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-262.42</v>
+        <v>-167.04</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-153.54</v>
+        <v>-100.96</v>
       </c>
       <c r="W26" t="n">
-        <v>-97.49</v>
+        <v>-0.47</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>27.63</v>
+        <v>293.32</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3353,37 +3353,37 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-27.31</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-39.94</v>
+        <v>-3.92</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-43.82</v>
+        <v>-37.57</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-47.17</v>
+        <v>-38.35</v>
       </c>
       <c r="Q27" t="n">
-        <v>-42.7</v>
+        <v>-26</v>
       </c>
       <c r="R27" t="n">
-        <v>-22.61</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-48.32</v>
+        <v>-46.22</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>-26.64</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3433,37 +3433,37 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-33.89</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-21.25</v>
+        <v>24.88</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-46.62</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-49.15</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-44.11</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-33.66</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-49.45</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-10.21</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3495,70 +3495,70 @@
         <v>119</v>
       </c>
       <c r="D29" t="n">
-        <v>-401.16</v>
+        <v>-321.07</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1207</v>
+        <v>1049.77</v>
       </c>
       <c r="G29" t="n">
-        <v>-72.25</v>
+        <v>189.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-142.84</v>
+        <v>-161.32</v>
       </c>
       <c r="J29" t="n">
-        <v>-178.6</v>
+        <v>-124.26</v>
       </c>
       <c r="K29" t="n">
-        <v>-98.44</v>
+        <v>-0.94</v>
       </c>
       <c r="L29" t="n">
-        <v>546.33</v>
+        <v>402.3</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-225.35</v>
+        <v>-142.97</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-235.03</v>
+        <v>-160.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>-161.21</v>
+        <v>-74.46</v>
       </c>
       <c r="R29" t="n">
-        <v>-206.74</v>
+        <v>-178.78</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-253.34</v>
+        <v>-169.36</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-138.63</v>
+        <v>-159.52</v>
       </c>
       <c r="W29" t="n">
-        <v>-21.34</v>
+        <v>70.13</v>
       </c>
       <c r="X29" t="n">
-        <v>-287.32</v>
+        <v>-147.84</v>
       </c>
       <c r="Y29" t="n">
-        <v>239.97</v>
+        <v>541.39</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3584,52 +3584,52 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-150.65</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-168.54</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-210.95</v>
+        <v>-205.36</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>187.84</v>
+        <v>254.16</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-188.03</v>
+        <v>-189.2</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-181.31</v>
+        <v>-200.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>-150.36</v>
+        <v>-132.53</v>
       </c>
       <c r="R30" t="n">
-        <v>-214.74</v>
+        <v>-203.5</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-199.99</v>
+        <v>-214.29</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>-156.03</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.61</v>
+        <v>287.34</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3655,70 +3655,70 @@
         <v>121</v>
       </c>
       <c r="D31" t="n">
-        <v>-97.35</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>167.13</v>
+        <v>217.01</v>
       </c>
       <c r="G31" t="n">
-        <v>-71.61</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-98.37</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-121.51</v>
+        <v>-107.3</v>
       </c>
       <c r="K31" t="n">
-        <v>-45.78</v>
+        <v>61.64</v>
       </c>
       <c r="L31" t="n">
-        <v>43.57</v>
+        <v>87.21</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-153.52</v>
+        <v>-90.6</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-141.38</v>
+        <v>-91.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>-119.05</v>
+        <v>-55.82</v>
       </c>
       <c r="R31" t="n">
-        <v>-126.61</v>
+        <v>-102.78</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-148.86</v>
+        <v>-95.45</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-85.63</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-26.3</v>
+        <v>81.12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-94.89</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3735,37 +3735,37 @@
         <v>123</v>
       </c>
       <c r="D32" t="n">
-        <v>-30.07</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-48.89</v>
+        <v>10.74</v>
       </c>
       <c r="G32" t="n">
-        <v>-82.4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-93.63</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-91.93</v>
+        <v>-114.13</v>
       </c>
       <c r="K32" t="n">
-        <v>-87.38</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>105.92</v>
+        <v>150.64</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-97.79</v>
+        <v>-78.64</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3774,31 +3774,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-87.84</v>
+        <v>-53.32</v>
       </c>
       <c r="R32" t="n">
-        <v>-91.75</v>
+        <v>-113.81</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-106.82</v>
+        <v>-106.46</v>
       </c>
       <c r="U32" t="n">
-        <v>-90.83</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-88.94</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-77.02</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.68</v>
+        <v>184.44</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3824,28 +3824,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-111.11</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-58.23</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-147.72</v>
+        <v>-165.09</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>108.14</v>
+        <v>221.46</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-144.18</v>
+        <v>-141.91</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3854,22 +3854,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>-99.73</v>
+        <v>-95.74</v>
       </c>
       <c r="R33" t="n">
-        <v>-133.49</v>
+        <v>-121.94</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-146.85</v>
+        <v>-174.62</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>-118.78</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>-2.37</v>
+        <v>117.64</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3904,61 +3904,61 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-78.77</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-85.27</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-105.08</v>
+        <v>-120.21</v>
       </c>
       <c r="K34" t="n">
-        <v>-59.45</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>100.48</v>
+        <v>178.97</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-92.44</v>
+        <v>-106.87</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-108.15</v>
+        <v>-123.76</v>
       </c>
       <c r="Q34" t="n">
-        <v>-80.93</v>
+        <v>-76.5</v>
       </c>
       <c r="R34" t="n">
-        <v>-106.9</v>
+        <v>-120.64</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-104.95</v>
+        <v>-144.44</v>
       </c>
       <c r="U34" t="n">
-        <v>-61.34</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-82.39</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-59.49</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.32</v>
+        <v>208.26</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3984,52 +3984,52 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-132.02</v>
+        <v>-77.46</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-77.48</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-121.82</v>
+        <v>-100.92</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>250.06</v>
+        <v>220.05</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-149.96</v>
+        <v>-111.5</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-145.95</v>
+        <v>-124.47</v>
       </c>
       <c r="Q35" t="n">
-        <v>-121.71</v>
+        <v>-63.6</v>
       </c>
       <c r="R35" t="n">
-        <v>-101.59</v>
+        <v>-72.06</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-174.8</v>
+        <v>-140.13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-116.78</v>
+        <v>-84.9</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-15.42</v>
+        <v>172.12</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4073,37 +4073,37 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-37.02</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-8.23</v>
+        <v>32.91</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-28.87</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-29.59</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-26.06</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-36.75</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-27.75</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-13.42</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4144,52 +4144,52 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-66.18</v>
+        <v>-92.16</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-59.63</v>
+        <v>-126.45</v>
       </c>
       <c r="J37" t="n">
-        <v>-119.71</v>
+        <v>-123.96</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>195.24</v>
+        <v>205.49</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-150.06</v>
+        <v>-138.14</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-168.62</v>
+        <v>-155.04</v>
       </c>
       <c r="Q37" t="n">
-        <v>-122.44</v>
+        <v>-88.89</v>
       </c>
       <c r="R37" t="n">
-        <v>-109.08</v>
+        <v>-117.04</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-174.14</v>
+        <v>-165.16</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-71</v>
+        <v>-120.9</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.47</v>
+        <v>179</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4224,52 +4224,52 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-46.42</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-47.22</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-73.22</v>
+        <v>-94.65</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>29.58</v>
+        <v>76.83</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-105.95</v>
+        <v>-110.1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-109.33</v>
+        <v>-120.04</v>
       </c>
       <c r="Q38" t="n">
-        <v>-90.33</v>
+        <v>-79.07</v>
       </c>
       <c r="R38" t="n">
-        <v>-72.6</v>
+        <v>-93.74</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-110.96</v>
+        <v>-121.3</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-46.81</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-42.33</v>
+        <v>90.16</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4304,52 +4304,52 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-76.95</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-48.8</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-101.64</v>
+        <v>-110.24</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>160.84</v>
+        <v>165.01</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-136.77</v>
+        <v>-170.02</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-132.51</v>
+        <v>-147.77</v>
       </c>
       <c r="Q39" t="n">
-        <v>-99.73</v>
+        <v>-87.68</v>
       </c>
       <c r="R39" t="n">
-        <v>-84.46</v>
+        <v>-92.77</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-142.2</v>
+        <v>-181.66</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>-79.91</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -4375,70 +4375,70 @@
         <v>132</v>
       </c>
       <c r="D40" t="n">
-        <v>-170.32</v>
+        <v>-127.53</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.35</v>
+        <v>98.61</v>
       </c>
       <c r="G40" t="n">
-        <v>-39.16</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-40.41</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-91.29</v>
+        <v>-80.29</v>
       </c>
       <c r="K40" t="n">
-        <v>-190.4</v>
+        <v>-82.71</v>
       </c>
       <c r="L40" t="n">
-        <v>33.35</v>
+        <v>80.72</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-155.16</v>
+        <v>-126.04</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-150.67</v>
+        <v>-129.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>-131.58</v>
+        <v>-91.25</v>
       </c>
       <c r="R40" t="n">
-        <v>-89.56</v>
+        <v>-73.02</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-159.09</v>
+        <v>-131.24</v>
       </c>
       <c r="U40" t="n">
-        <v>-226.22</v>
+        <v>-122.75</v>
       </c>
       <c r="V40" t="n">
-        <v>-39.86</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-133.14</v>
+        <v>-17.91</v>
       </c>
       <c r="X40" t="n">
-        <v>-67.97</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-33.05</v>
+        <v>104.44</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4491,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-6.51</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-6.39</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-2.3</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4553,28 +4553,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-15.79</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-16.15</v>
+        <v>2.45</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-24.12</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-29.11</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>-26.84</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-20.66</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4624,52 +4624,52 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-47.31</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-48.1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-85.21</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-38.41</v>
+        <v>2.14</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-67.65</v>
+        <v>-146.93</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-70.59</v>
+        <v>-199.27</v>
       </c>
       <c r="Q43" t="n">
-        <v>-58.77</v>
+        <v>-109.75</v>
       </c>
       <c r="R43" t="n">
-        <v>-82.43</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-72.88</v>
+        <v>-202.21</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-48.2</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4799,22 +4799,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-16.65</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-13.24</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-19.71</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>-19.1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-13.32</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4855,16 +4855,16 @@
         <v>140</v>
       </c>
       <c r="D46" t="n">
-        <v>-64.28</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>46.73</v>
+        <v>177.31</v>
       </c>
       <c r="G46" t="n">
-        <v>-29.66</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4873,52 +4873,52 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-64.98</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.36</v>
+        <v>84.72</v>
       </c>
       <c r="L46" t="n">
-        <v>25.22</v>
+        <v>106.46</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-65.64</v>
+        <v>-44.43</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-69.48</v>
+        <v>-40.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>-69.43</v>
+        <v>-43.08</v>
       </c>
       <c r="R46" t="n">
-        <v>-65.04</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-69.72</v>
+        <v>-37.01</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-31.2</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-16.24</v>
+        <v>33.5</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4959,22 +4959,22 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-35.63</v>
+        <v>-2.21</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-57.15</v>
+        <v>-55.18</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>-62.42</v>
+        <v>-76.14</v>
       </c>
       <c r="Q47" t="n">
-        <v>-50.58</v>
+        <v>-34.59</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>-57.76</v>
+        <v>-78</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -5039,22 +5039,22 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-18.43</v>
+        <v>-11.64</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-12.35</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>-16.93</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>-15.59</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>-10.56</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-68.19</v>
+        <v>-6.77</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-40.69</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>-40.01</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>-41.14</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5193,19 +5193,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-48.02</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-15.29</v>
+        <v>32.98</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-82.23</v>
+        <v>-38.52</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5214,16 +5214,16 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>-75.06</v>
+        <v>-21.97</v>
       </c>
       <c r="R50" t="n">
-        <v>-47.49</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>-78.84</v>
+        <v>-24.93</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5232,13 +5232,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>-37.62</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>-21.63</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
@@ -5279,22 +5279,22 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-17.98</v>
+        <v>-1.15</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-15.68</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-15.65</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>-14.91</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-15.84</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>-4.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-67.39</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5353,43 +5353,43 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-55.55</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>45.76</v>
+        <v>169.44</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-23.81</v>
+        <v>27.7</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>-29.03</v>
+        <v>9.34</v>
       </c>
       <c r="Q52" t="n">
-        <v>-19.23</v>
+        <v>46.42</v>
       </c>
       <c r="R52" t="n">
-        <v>-53.44</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>-32.43</v>
+        <v>-3.21</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>-69.6</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>44.78</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
